--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/EstimateFpy.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/EstimateFpy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>H1507062</t>
+  </si>
+  <si>
+    <t>WLG预计结存（颗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,19 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -430,8 +435,11 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44642</v>
       </c>
@@ -446,6 +454,9 @@
       </c>
       <c r="E2" s="3">
         <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
